--- a/notebooks/TSC2/input/TSC2_TSC2_individuals.xlsx
+++ b/notebooks/TSC2/input/TSC2_TSC2_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TSC2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E02631F-FCCF-464F-B731-8955D30F08E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151EF40C-1EC6-0747-A679-4D96DF1E8CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="2760" windowWidth="36860" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/notebooks/TSC2/input/TSC2_TSC2_individuals.xlsx
+++ b/notebooks/TSC2/input/TSC2_TSC2_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TSC2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151EF40C-1EC6-0747-A679-4D96DF1E8CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0FC017-8D6B-4042-B804-5F168E79DD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="2760" windowWidth="36860" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="5300" windowWidth="36860" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="120">
   <si>
     <t>PMID</t>
   </si>
@@ -82,21 +82,12 @@
     <t>Hyperactivity</t>
   </si>
   <si>
-    <t>Ependymoma</t>
-  </si>
-  <si>
     <t>Infantile spasms</t>
   </si>
   <si>
     <t>Seizure</t>
   </si>
   <si>
-    <t>Attention deficit hyperactivity disorder</t>
-  </si>
-  <si>
-    <t>Astrocytoma</t>
-  </si>
-  <si>
     <t>Cortical tubers</t>
   </si>
   <si>
@@ -193,21 +184,12 @@
     <t>HP:0000752</t>
   </si>
   <si>
-    <t>HP:0002888</t>
-  </si>
-  <si>
     <t>HP:0012469</t>
   </si>
   <si>
     <t>HP:0001250</t>
   </si>
   <si>
-    <t>HP:0007018</t>
-  </si>
-  <si>
-    <t>HP:0009592</t>
-  </si>
-  <si>
     <t>HP:0009717</t>
   </si>
   <si>
@@ -314,13 +296,97 @@
   </si>
   <si>
     <t>excluded</t>
+  </si>
+  <si>
+    <t>PMID:29196670</t>
+  </si>
+  <si>
+    <t>Mutational analysis of TSC1 and TSC2 genes in Tuberous Sclerosis Complex patients from Greece</t>
+  </si>
+  <si>
+    <t>Patient 1</t>
+  </si>
+  <si>
+    <t>Patient 2</t>
+  </si>
+  <si>
+    <t>Patient 5</t>
+  </si>
+  <si>
+    <t>Patient 8</t>
+  </si>
+  <si>
+    <t>Patient 9</t>
+  </si>
+  <si>
+    <t>Patient 11</t>
+  </si>
+  <si>
+    <t>Patient 19</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>observed</t>
+  </si>
+  <si>
+    <t>Pulmonary lymphangiomyomatosis</t>
+  </si>
+  <si>
+    <t>HP:0012798</t>
+  </si>
+  <si>
+    <t>Angiofibromas</t>
+  </si>
+  <si>
+    <t>HP:0010615</t>
+  </si>
+  <si>
+    <t>Retinal hamartoma</t>
+  </si>
+  <si>
+    <t>HP:0009594</t>
+  </si>
+  <si>
+    <t>c.826del</t>
+  </si>
+  <si>
+    <t>NP_000539.2:p.(Met276CysfsTer17)</t>
+  </si>
+  <si>
+    <t>c.2206_2210dup</t>
+  </si>
+  <si>
+    <t>NP_000539.2:p.(Cys738LeufsTer35)</t>
+  </si>
+  <si>
+    <t>c.4942A&gt;T</t>
+  </si>
+  <si>
+    <t>NP_000539.2:p.(Ile1648Phe)</t>
+  </si>
+  <si>
+    <t>c.2221-2A&gt;G</t>
+  </si>
+  <si>
+    <t>c.2713C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_000539.2:p.(Arg905Trp)</t>
+  </si>
+  <si>
+    <t>c.5160+5G&gt;T</t>
+  </si>
+  <si>
+    <t>c.648+1G&gt;T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +401,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -372,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -380,6 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,15 +757,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,343 +827,963 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" t="s">
         <v>83</v>
       </c>
+      <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="K2" t="s">
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="L2" t="s">
+      <c r="G10" t="s">
         <v>44</v>
       </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>97</v>
+      <c r="Q11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/TSC2/input/TSC2_TSC2_individuals.xlsx
+++ b/notebooks/TSC2/input/TSC2_TSC2_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TSC2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0FC017-8D6B-4042-B804-5F168E79DD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E05C75-B60F-D941-8607-520947F13CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="5300" windowWidth="36860" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2400" yWindow="6560" windowWidth="36860" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="120">
   <si>
     <t>PMID</t>
   </si>
@@ -757,15 +757,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,40 +872,37 @@
         <v>29</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1012,40 +1009,37 @@
         <v>63</v>
       </c>
       <c r="AJ2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="AK2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AM2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AO2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AP2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AQ2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AR2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AS2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -1100,17 +1094,17 @@
       <c r="AC3" t="s">
         <v>50</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>50</v>
+      <c r="AP3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>76</v>
       </c>
       <c r="AS3" t="s">
         <v>76</v>
       </c>
-      <c r="AT3" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1162,17 +1156,17 @@
       <c r="AC4" t="s">
         <v>87</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AP4" t="s">
         <v>87</v>
       </c>
+      <c r="AR4" t="s">
+        <v>91</v>
+      </c>
       <c r="AS4" t="s">
         <v>91</v>
       </c>
-      <c r="AT4" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1257,11 +1251,8 @@
       <c r="AI5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AJ5" s="3" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1346,11 +1337,8 @@
       <c r="AI6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AJ6" s="3" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1435,11 +1423,8 @@
       <c r="AI7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AJ7" s="3" t="s">
-        <v>102</v>
-      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -1521,11 +1506,8 @@
       <c r="AI8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AJ8" s="3" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1610,11 +1592,8 @@
       <c r="AI9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AJ9" s="3" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1696,11 +1675,8 @@
       <c r="AI10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AJ10" s="3" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -1780,9 +1756,6 @@
         <v>91</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
         <v>91</v>
       </c>
     </row>
